--- a/Flora_glossary.xlsx
+++ b/Flora_glossary.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igrom\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Starfield_RU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE27F46-881D-43CD-AED8-A44BFE13C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3F985-CE8D-4E33-826B-CA0A60A20880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21225" yWindow="45" windowWidth="29010" windowHeight="15375" xr2:uid="{90C7B788-EEE8-474A-B8A2-7D8668DC129C}"/>
+    <workbookView xWindow="11985" yWindow="3105" windowWidth="29010" windowHeight="15375" activeTab="1" xr2:uid="{90C7B788-EEE8-474A-B8A2-7D8668DC129C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flora" sheetId="1" r:id="rId1"/>
+    <sheet name="Animals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Animals!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flora!$A$1:$C$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
   <si>
     <t>Английское название</t>
   </si>
@@ -1899,6 +1901,280 @@
   </si>
   <si>
     <t>Старался придерживатся этого правила (но н евсегда с английсикм это просто сделать)                                                                                                                                                                                                                                     Названия цветов и растений мы всегда пишем с маленькой буквы. Это нужно запомнить. Например, астра, роза георгины, гладиолусы, ель, берёза, сосна и так далее. Если же речь идёт о названии сорта, то в этом случае пишем с прописной буквы, так как это является собственным именем. Пример, астра Альпийская, роза Артемис, георгины Либретто, гладиолус Белый ангел, ель Акрокона, берёза Даурская, сосна Банкса.</t>
+  </si>
+  <si>
+    <t>Lesser Jaffa Lizard</t>
+  </si>
+  <si>
+    <t>"Lesser" - меньший, менее важный.
+"Jaffa" - Яффа, название города в Израиле.
+"Lizard" - ящерица.
+Таким образом, "Lesser Jaffa Lizard" описывает ящерицу, которая является менее важным или менее крупным видом и которая, возможно, встречается в регионе Яффа.</t>
+  </si>
+  <si>
+    <t>Greater Jaffa Lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Greater" - больший, великий.
+"Jaffa" - Яффа, название города в Израиле.
+"Lizard" - ящерица.
+Таким образом, "Greater Jaffa Lizard" можно перевести как "большая яффская ящерица" или "ящерица, которая является крупным видом и, возможно, обитает в регионе Яффа".</t>
+  </si>
+  <si>
+    <t>Trilobite</t>
+  </si>
+  <si>
+    <t>Chasmbass</t>
+  </si>
+  <si>
+    <t>Kreet Grazer</t>
+  </si>
+  <si>
+    <t>Kreet Stalker</t>
+  </si>
+  <si>
+    <t>"stalker" на английском может означать "преследователь" или "охотник",</t>
+  </si>
+  <si>
+    <t>Kreet Crawler</t>
+  </si>
+  <si>
+    <t>трилобит</t>
+  </si>
+  <si>
+    <t>критский ползун</t>
+  </si>
+  <si>
+    <t>критский гербивор</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kreet - Крит (местность в игре)
+grazer [ˊgreɪzə] n
+пасу́щееся живо́тное
+Англо-русский словарь Мюллера &gt; grazer 
+Слово "grazer" на английском языке обычно означает "пасущееся животное", которое питается травой. Синоним слово </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ГЕРБИВОР</t>
+    </r>
+  </si>
+  <si>
+    <t>критский преследователь</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>Red Mile Mauler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> молотильщик крсной мили</t>
+  </si>
+  <si>
+    <t>Crag Sprinter</t>
+  </si>
+  <si>
+    <t>скальный спринтер</t>
+  </si>
+  <si>
+    <t>Greater Silverfish</t>
+  </si>
+  <si>
+    <t>Lesser Silverfish</t>
+  </si>
+  <si>
+    <t>радужный агнатан</t>
+  </si>
+  <si>
+    <t>Rainbow Agnathan</t>
+  </si>
+  <si>
+    <t>Mossgnath</t>
+  </si>
+  <si>
+    <t>мшистый гнат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пасущийся меченосец </t>
+  </si>
+  <si>
+    <t>Grazing Ensifer</t>
+  </si>
+  <si>
+    <t>The generic epithet Ensifer derives from the Latin noun ensifer, "sword-bearer".</t>
+  </si>
+  <si>
+    <t>Flying Leech</t>
+  </si>
+  <si>
+    <t>Crangon — род десятиногих раков из семейства Crangonidae инфраотряда настоящих креветок.
+Виды рода Crangon встречаются исключительно в северном полушарии, причем большинство видов обитают в северной части Тихого океана. C. septemspinosa — единственный вид в роду, встречающийся в северо-западной части Атлантического океана, в то время как в северо-восточной части Атлантического океана встречаются C. crangon и C. allmani. Однако, за исключением важного в коммерческом отношении вида C. crangon, распространение видов Crangon плохо изучено. Считается, что большее количество видов в Тихом океане указывает на то, что род возник именно там[1].</t>
+  </si>
+  <si>
+    <t>лось крангон</t>
+  </si>
+  <si>
+    <t>Elk Crangon</t>
+  </si>
+  <si>
+    <t>Dropsalm</t>
+  </si>
+  <si>
+    <t>каплесало</t>
+  </si>
+  <si>
+    <t>преследователь</t>
+  </si>
+  <si>
+    <t>Crawling Eurypterid</t>
+  </si>
+  <si>
+    <t>ползучий эвриптерид</t>
+  </si>
+  <si>
+    <t>крупный серебрянец</t>
+  </si>
+  <si>
+    <t>малый серебрянец</t>
+  </si>
+  <si>
+    <t>летающий пиявец</t>
+  </si>
+  <si>
+    <t>малый яффский ящер</t>
+  </si>
+  <si>
+    <t>крупный яффский ящер</t>
+  </si>
+  <si>
+    <t>Buzzrunner</t>
+  </si>
+  <si>
+    <t>китовоусый коловрат</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rotifer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Рыбоводство: коловратка (Rotifera)
+2) Океанология: коловратка (зоо; Rotatoria)                                                                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">baleen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+baleen китовый ус. Кито́вый ус — роговые пластины у усатых китов</t>
+    </r>
+  </si>
+  <si>
+    <t>Baleen Rotifer</t>
+  </si>
+  <si>
+    <t>альфа ашта</t>
+  </si>
+  <si>
+    <t>Alpha Ashta</t>
+  </si>
+  <si>
+    <t>в данном случае нет смысла перводить</t>
+  </si>
+  <si>
+    <t>Ashta</t>
+  </si>
+  <si>
+    <t>ашта</t>
+  </si>
+  <si>
+    <t>зубокрыл</t>
+  </si>
+  <si>
+    <t>Prong Wing</t>
+  </si>
+  <si>
+    <t>Dust Devil</t>
+  </si>
+  <si>
+    <t>пыльный дьявол</t>
+  </si>
+  <si>
+    <t>Terrormorph Thrall</t>
+  </si>
+  <si>
+    <t>Heatleech</t>
+  </si>
+  <si>
+    <t>Бездонный бас</t>
+  </si>
+  <si>
+    <t>безднобасс</t>
+  </si>
+  <si>
+    <t>жужальщик</t>
+  </si>
+  <si>
+    <t>теплосос</t>
+  </si>
+  <si>
+    <t>Terrormorph</t>
+  </si>
+  <si>
+    <t>порождение ужаса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Terror" - это существительное, означающее ужас, страх, ужасающее событие или состояние, вызывающее страх.
+"Morph" - это глагол или существительное, связанные с процессом изменения формы, структуры или характера. В данном контексте, скорее всего, это существительное, обозначающее процесс морфологической трансформации или изменения.</t>
+  </si>
+  <si>
+    <t>порождение ужаса прислужник</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2181,9 +2457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2193,103 +2466,62 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -2606,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17E727-E622-4A11-BEEB-4B6E9FED50B1}">
   <dimension ref="A1:C393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection sqref="A1:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,13 +2850,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3890,7 +4122,7 @@
       <c r="B139" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="25" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4524,61 +4756,61 @@
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="28"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
+      <c r="A216" s="28"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="28"/>
+      <c r="B220" s="28"/>
+      <c r="C220" s="28"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
+      <c r="A221" s="28"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="25"/>
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="28"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="25"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="25"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="28"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
@@ -5093,7 +5325,7 @@
   </sheetData>
   <autoFilter ref="A1:C207" xr:uid="{1C17E727-E622-4A11-BEEB-4B6E9FED50B1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C207">
-      <sortCondition sortBy="cellColor" ref="B1:B207" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="B1:B207" dxfId="0"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C213">
@@ -5105,4 +5337,1202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDB45AE-1C57-48BD-9E39-B87CB05DD850}">
+  <dimension ref="A1:C207"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="36"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="40"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="36"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="36"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="36"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="36"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="36"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="36"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="36"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="36"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="36"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="36"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="36"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="36"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="36"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="36"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="36"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="36"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="36"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="36"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="36"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="34"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="36"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="36"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="36"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="36"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="36"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="36"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="36"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="36"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="36"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="36"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="36"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="35"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="36"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="36"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="36"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="36"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="36"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="36"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="36"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="36"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="36"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="41"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="36"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="36"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="36"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="36"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="36"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="36"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="35"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="36"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="34"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="36"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="35"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="36"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="36"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="34"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="35"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="36"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="32"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="34"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="37"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="36"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="36"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="37"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="36"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="37"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="36"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="37"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="36"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="37"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="36"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="35"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="36"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="32"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="34"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="35"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="36"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="36"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="35"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="36"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="35"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="36"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="37"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="36"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="32"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="36"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="32"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="36"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="37"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="36"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="32"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="34"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="32"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="36"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="37"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="41"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="32"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="34"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="41"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="36"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="32"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="36"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="37"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="36"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="32"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="42"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="35"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="36"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="32"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="34"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="32"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="34"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="37"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="36"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="36"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="37"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="36"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="37"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="36"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="35"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="36"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="32"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="36"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="35"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="36"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="37"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="36"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="36"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="35"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="36"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="37"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="36"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="32"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="36"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="37"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="36"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="37"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="36"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="37"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="36"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="32"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="34"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="37"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="36"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="37"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="36"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="37"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="36"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="35"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="36"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="32"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="34"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="37"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="36"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="32"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="34"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="32"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="34"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="35"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="36"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="32"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="32"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="34"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="34"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="32"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="34"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="35"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="36"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="35"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="36"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="37"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="36"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="37"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="36"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="37"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="36"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="32"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="36"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="35"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="36"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="35"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="36"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="35"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="36"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="37"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="36"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="35"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="36"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="32"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="34"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="32"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="34"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="35"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="36"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="35"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="36"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="37"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="36"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="32"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="36"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="35"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="36"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="37"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="36"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="35"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="36"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="35"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="36"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="37"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="36"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="35"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="36"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="35"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="36"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="37"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="36"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="35"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="36"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="35"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="36"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="35"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="36"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="35"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="36"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="37"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="36"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="35"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="36"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="35"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="36"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="35"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="36"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="35"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="36"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="35"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="36"/>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="43"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C29" xr:uid="{9BDB45AE-1C57-48BD-9E39-B87CB05DD850}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+      <sortCondition ref="A1:A29"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>